--- a/src/models/baselines/LR/results/real-world/IMDb/metrics.xlsx
+++ b/src/models/baselines/LR/results/real-world/IMDb/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8328545926647193</v>
+        <v>0.8317740452234123</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0.5932203389830508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7975968300335389</v>
+        <v>0.8008330628583793</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8354335713512929</v>
+        <v>0.8155347289840961</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6864406779661016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6864406779661016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8431718597857838</v>
+        <v>0.8354105809802013</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.84662988207292</v>
+        <v>0.8476035919073893</v>
       </c>
     </row>
     <row r="7">
@@ -532,7 +532,7 @@
         <v>0.5932203389830508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7917843232716651</v>
+        <v>0.7977226008871577</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.635593220338983</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.635593220338983</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8185897435897435</v>
+        <v>0.8151195499296765</v>
       </c>
     </row>
     <row r="9">
@@ -560,7 +560,7 @@
         <v>0.5423728813559322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7778129395218003</v>
+        <v>0.7827720978037433</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6864406779661016</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8387644704100401</v>
+        <v>0.8509669479606189</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8119320025965595</v>
+        <v>0.8168925132532726</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6347457627118642</v>
+        <v>0.6398305084745762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6347457627118642</v>
+        <v>0.6398305084745762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8194570215298063</v>
+        <v>0.8194629719787947</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04700653247758664</v>
+        <v>0.04977686493419801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04700653247758664</v>
+        <v>0.04977686493419801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02390614609671933</v>
+        <v>0.02210360682702487</v>
       </c>
     </row>
   </sheetData>
